--- a/Analisis/Resultados/bosque/descriptiva-bosque.xlsx
+++ b/Analisis/Resultados/bosque/descriptiva-bosque.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marco\Desktop\TFG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60791B4-319C-4A9A-B01B-B9A8DD8F13F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{131196D5-0B26-4643-8C1F-D1C06A3328C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="4485" windowWidth="20640" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>Estadisticas</t>
   </si>
@@ -61,40 +61,37 @@
     <t>Tercer Cuartil (Q3)</t>
   </si>
   <si>
-    <t>4750.533783783784</t>
-  </si>
-  <si>
-    <t>450.0</t>
-  </si>
-  <si>
-    <t>27935.750100727564</t>
-  </si>
-  <si>
-    <t>10.0</t>
-  </si>
-  <si>
-    <t>472183.0</t>
-  </si>
-  <si>
-    <t>2109237.0</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>40.0</t>
-  </si>
-  <si>
-    <t>2262.5</t>
-  </si>
-  <si>
-    <t>463.71009009009003</t>
-  </si>
-  <si>
-    <t>2.9400000000000004</t>
-  </si>
-  <si>
-    <t>3189.170681723519</t>
+    <t>3986.1732101616626</t>
+  </si>
+  <si>
+    <t>50.0</t>
+  </si>
+  <si>
+    <t>28327.395400161044</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>472183</t>
+  </si>
+  <si>
+    <t>1726013</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>536.0</t>
+  </si>
+  <si>
+    <t>472.0692609699769</t>
+  </si>
+  <si>
+    <t>2.97</t>
+  </si>
+  <si>
+    <t>3228.4989260273464</t>
   </si>
   <si>
     <t>0.01</t>
@@ -103,25 +100,25 @@
     <t>53026.45</t>
   </si>
   <si>
-    <t>205887.27999999997</t>
+    <t>204405.99</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>0.35</t>
-  </si>
-  <si>
-    <t>33.965</t>
-  </si>
-  <si>
-    <t>2727.3948873873874</t>
-  </si>
-  <si>
-    <t>17.28</t>
-  </si>
-  <si>
-    <t>18784.424006515314</t>
+    <t>0.36</t>
+  </si>
+  <si>
+    <t>34.01</t>
+  </si>
+  <si>
+    <t>2776.6209699769056</t>
+  </si>
+  <si>
+    <t>17.42</t>
+  </si>
+  <si>
+    <t>19016.09383693793</t>
   </si>
   <si>
     <t>0.05</t>
@@ -130,13 +127,13 @@
     <t>312878.52</t>
   </si>
   <si>
-    <t>1210963.33</t>
-  </si>
-  <si>
-    <t>2.08</t>
-  </si>
-  <si>
-    <t>199.0125</t>
+    <t>1202276.8800000001</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>199.5</t>
   </si>
 </sst>
 </file>
@@ -507,15 +504,15 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="32.28515625" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -540,10 +537,10 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -554,10 +551,10 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -568,10 +565,10 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -582,10 +579,10 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -596,10 +593,10 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -610,10 +607,10 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -621,13 +618,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -635,13 +632,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -649,13 +646,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
